--- a/resultsfts.xlsx
+++ b/resultsfts.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oxanapan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oxanapan/Documents/GitHub/forecasting_time_series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16258497-4FDB-204B-9008-7B1094060D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D226B735-9588-7141-B6CC-80EAF156335D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="460" windowWidth="30440" windowHeight="16040" activeTab="3" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16040" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="55">
   <si>
     <t>Series 1</t>
   </si>
@@ -199,6 +200,9 @@
   </si>
   <si>
     <t>Timeseries</t>
+  </si>
+  <si>
+    <t>0 diff</t>
   </si>
 </sst>
 </file>
@@ -230,12 +234,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -345,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,35 +411,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5B04-7CA3-1B47-A05C-8D05FB9AECBE}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,25 +829,25 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -812,25 +855,25 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -838,25 +881,25 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="B5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -864,25 +907,25 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -890,25 +933,25 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -916,25 +959,25 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="B8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -942,25 +985,25 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -968,206 +1011,26 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
-        <v>10</v>
+      <c r="B10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1180,12 +1043,12 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="25"/>
+    <col min="1" max="10" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1217,7 +1080,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1226,7 +1089,7 @@
       <c r="C2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
       <c r="E2" s="17">
@@ -1238,28 +1101,28 @@
       <c r="G2" s="16">
         <v>2</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>0</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>0</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -1268,25 +1131,25 @@
       <c r="G3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1295,21 +1158,21 @@
       <c r="F4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1318,10 +1181,10 @@
       <c r="C5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -1330,18 +1193,18 @@
       <c r="G5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1357,17 +1220,17 @@
       <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
@@ -1381,17 +1244,17 @@
       <c r="F7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -1402,20 +1265,20 @@
       <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -1431,12 +1294,12 @@
       <c r="F9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1463,7 +1326,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -1489,182 +1352,182 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1677,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F30E553-9D36-9845-814F-2A5749610ADE}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1918,4 +1781,227 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4DF01-5767-3D47-BDA9-73DA156B2CE1}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resultsfts.xlsx
+++ b/resultsfts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oxanapan/Documents/GitHub/forecasting_time_series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D226B735-9588-7141-B6CC-80EAF156335D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D831321-4647-5644-A1E4-2A55EB5C4431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16040" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="56">
   <si>
     <t>Series 1</t>
   </si>
@@ -199,10 +199,13 @@
     <t>p-value = 6.562e-08</t>
   </si>
   <si>
-    <t>Timeseries</t>
-  </si>
-  <si>
     <t>0 diff</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,42 +441,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5B04-7CA3-1B47-A05C-8D05FB9AECBE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -829,25 +833,25 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -855,25 +859,25 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="C4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -881,25 +885,25 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="B5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -907,25 +911,25 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -933,25 +937,25 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="C7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -959,25 +963,25 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -985,25 +989,25 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1011,25 +1015,25 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="B10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1042,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3156C46D-6D25-A44F-BF00-22BD1FDB9B90}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,11 +1056,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="A1"/>
+      <c r="B1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1086,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1112,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
@@ -1204,7 +1210,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1230,7 +1236,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1260,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -1797,25 +1803,25 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1823,21 +1829,21 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1845,19 +1851,19 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1865,19 +1871,19 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1885,19 +1891,19 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1905,19 +1911,19 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1925,19 +1931,19 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1945,19 +1951,19 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1965,19 +1971,19 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1985,19 +1991,19 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37" t="s">
         <v>10</v>
       </c>
     </row>

--- a/resultsfts.xlsx
+++ b/resultsfts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oxanapan/Documents/GitHub/forecasting_time_series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lunaallani/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D831321-4647-5644-A1E4-2A55EB5C4431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB7284-7821-D046-B2E6-A10844C92582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="4" xr2:uid="{49481F9A-B3E4-3042-81DE-03579D2C8212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="55">
   <si>
     <t>Series 1</t>
   </si>
@@ -74,9 +65,6 @@
   </si>
   <si>
     <t>Marginal Normal distribution</t>
-  </si>
-  <si>
-    <t>Later decision</t>
   </si>
   <si>
     <t>WN</t>
@@ -212,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,9 +463,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,12 +785,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -826,10 +816,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" thickBot="1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -855,165 +845,165 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="32" t="s">
+      <c r="D9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1">
+      <c r="A10" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>10</v>
@@ -1046,22 +1036,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3156C46D-6D25-A44F-BF00-22BD1FDB9B90}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="10" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1"/>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="17"/>
+      <c r="B1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
@@ -1085,15 +1075,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="19">
         <v>0</v>
@@ -1117,107 +1107,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="40"/>
       <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="40"/>
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34">
+      <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="40" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17">
@@ -1235,78 +1225,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="40"/>
       <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="40"/>
+      <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="B9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1323,17 +1313,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="34">
       <c r="A1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1357,27 +1347,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
@@ -1414,12 +1404,12 @@
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
@@ -1437,9 +1427,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
@@ -1454,12 +1444,12 @@
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
@@ -1474,12 +1464,12 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
@@ -1497,29 +1487,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="34">
       <c r="A9" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34">
       <c r="A10" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26" t="s">
@@ -1546,11 +1536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F30E553-9D36-9845-814F-2A5749610ADE}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1602,165 +1594,165 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1">
+      <c r="A9" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -1793,15 +1785,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D4DF01-5767-3D47-BDA9-73DA156B2CE1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -1825,29 +1817,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1884,12 +1876,12 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="32" t="s">
@@ -1907,9 +1899,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
@@ -1924,12 +1916,12 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
@@ -1944,12 +1936,12 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
@@ -1967,29 +1959,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="36" t="s">
